--- a/documents/binding.xlsx
+++ b/documents/binding.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\baremetalweb\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\caperaven-projects\crs-binding\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DE17E6-F32D-4320-A2DE-87609B66E6F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A400C2-4BE0-4509-8037-B38A6F9030EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A380751C-9E8D-42FD-953F-0CD2F54C42EF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>.bind</t>
   </si>
@@ -99,18 +99,9 @@
     <t>Expression</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>Property:Value seperator</t>
   </si>
   <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>Else</t>
-  </si>
-  <si>
     <t>Observe changes and reflect changes both ways</t>
   </si>
   <si>
@@ -135,16 +126,28 @@
     <t>.condition</t>
   </si>
   <si>
-    <t>attr.condition(${exp}, passValue ^ failValue)</t>
-  </si>
-  <si>
-    <t>style.condition(${exp}, property:value, property:value ...)</t>
-  </si>
-  <si>
     <t>class.condition(${exp}, class, class ...)</t>
   </si>
   <si>
-    <t>class.condition(${exp}, class, class ... ^ class, class ...)</t>
+    <t>style.condition(${exp},  '{"property":"value", "property":"value"}')</t>
+  </si>
+  <si>
+    <t>attr.condition(${exp}, ? passValue : failValue)</t>
+  </si>
+  <si>
+    <t>class.condition(${exp}, ? class, class ... : class, class ...)</t>
+  </si>
+  <si>
+    <t>{"property":"value"}</t>
+  </si>
+  <si>
+    <t>? Pass : Fail</t>
+  </si>
+  <si>
+    <t>If / Else</t>
+  </si>
+  <si>
+    <t>Json object structure</t>
   </si>
 </sst>
 </file>
@@ -508,12 +511,12 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
     <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -531,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,18 +556,18 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,29 +578,29 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,54 +633,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
